--- a/Itemc/experimentacion-velocidad.xlsx
+++ b/Itemc/experimentacion-velocidad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yared\Documents\proyectos\proyecto-paralela\proyecto-paralela\ItemC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653FE84A-7C42-48FE-AC0E-8008969F880A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2659DDA0-4516-4DF1-B5C2-139BA82A7397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3156" yWindow="1776" windowWidth="17280" windowHeight="8880" xr2:uid="{7C2097CC-F9FB-42BD-A16F-F43F6A8828BC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7C2097CC-F9FB-42BD-A16F-F43F6A8828BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -486,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F4698DA-3407-493B-97D6-A12FCD2767F1}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1200,6 +1200,87 @@
         <v>45.911000000000001</v>
       </c>
     </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
